--- a/docs/_data/list_paper_excel.xlsx
+++ b/docs/_data/list_paper_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\rnn-sda\docs\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740AF05F-A6CA-41F0-8BDB-2AA949987907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF898077-C8B9-407B-8D57-124A4307090A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{621928E8-631E-48C9-BC78-5E84B3E22D89}"/>
+    <workbookView xWindow="-24960" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{621928E8-631E-48C9-BC78-5E84B3E22D89}"/>
   </bookViews>
   <sheets>
     <sheet name="list_paper" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="197">
   <si>
     <t>no</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Jaafar, K., Ismail, N., Tajjudin, M., Adnan, R., Rahiman, M.H.F.</t>
   </si>
   <si>
-    <t>A review on flood modelling and rainfall-runoff relationships2</t>
-  </si>
-  <si>
     <t>IEEE 6th Control and System Graduate Research Colloquium (ICSGRC)</t>
   </si>
   <si>
@@ -624,12 +621,18 @@
   </si>
   <si>
     <t>deep learning, lstm</t>
+  </si>
+  <si>
+    <t>A review on flood modelling and rainfall-runoff relationships</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,13 +662,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D481C76-D0B1-4315-B643-77A2D2DC4652}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1002,9 @@
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="40" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="36.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="26" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -1030,7 +1038,7 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1065,8 +1073,8 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1">
-        <v>20190319</v>
+      <c r="J2" s="3">
+        <v>43543</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
@@ -1097,8 +1105,8 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1">
-        <v>20190416</v>
+      <c r="J3" s="3">
+        <v>43571</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>15</v>
@@ -1126,8 +1134,8 @@
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1">
-        <v>20190415</v>
+      <c r="J4" s="3">
+        <v>43570</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>41</v>
@@ -1184,8 +1192,8 @@
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1">
-        <v>20190328</v>
+      <c r="J6" s="3">
+        <v>43552</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>29</v>
@@ -1213,6 +1221,9 @@
       <c r="H7" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1236,6 +1247,9 @@
       <c r="H8" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1259,6 +1273,9 @@
       <c r="H9" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>72</v>
       </c>
@@ -1282,6 +1299,9 @@
       <c r="H10" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>77</v>
       </c>
@@ -1305,31 +1325,37 @@
       <c r="H11" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G12" s="1">
         <v>2016</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1337,79 +1363,88 @@
         <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1">
         <v>2015</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G14" s="1">
         <v>2017</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G15" s="1">
         <v>2012</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1418,13 +1453,13 @@
         <v>2018</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="1">
-        <v>20180829</v>
+      <c r="J16" s="3">
+        <v>43341</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>61</v>
@@ -1435,42 +1470,48 @@
     </row>
     <row r="17" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="G17" s="1">
         <v>2004</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G18" s="1">
         <v>2008</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="30" x14ac:dyDescent="0.25">
@@ -1495,8 +1536,8 @@
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="1">
-        <v>20190429</v>
+      <c r="J19" s="3">
+        <v>43584</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>22</v>
@@ -1507,71 +1548,74 @@
     </row>
     <row r="20" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G20" s="1">
         <v>2018</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="1">
-        <v>20180814</v>
+      <c r="J20" s="3">
+        <v>43326</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G21" s="1">
         <v>2018</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G22" s="1">
         <v>2018</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
@@ -1579,16 +1623,16 @@
     </row>
     <row r="23" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G23" s="1">
         <v>2017</v>
@@ -1596,11 +1640,11 @@
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1">
-        <v>20180803</v>
+      <c r="J23" s="3">
+        <v>43315</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>51</v>
@@ -1608,36 +1652,39 @@
     </row>
     <row r="24" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G24" s="1">
         <v>2017</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="60" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -1646,39 +1693,42 @@
         <v>2018</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G26" s="1">
         <v>2015</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="1">
-        <v>20180816</v>
+      <c r="J26" s="3">
+        <v>43328</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>51</v>
@@ -1686,140 +1736,152 @@
     </row>
     <row r="27" spans="3:13" ht="90" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G27" s="1">
         <v>2019</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="1">
         <v>2019</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G29" s="1">
         <v>2017</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" s="1">
         <v>2018</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="1">
-        <v>20191118</v>
+      <c r="J30" s="3">
+        <v>43787</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="75" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G31" s="1">
         <v>2019</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="105" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="G32" s="1">
         <v>2019</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="1">
-        <v>20191119</v>
+      <c r="J32" s="3">
+        <v>43788</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="45" x14ac:dyDescent="0.25">
@@ -1844,8 +1906,8 @@
       <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="1">
-        <v>20190304</v>
+      <c r="J33" s="3">
+        <v>43528</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>13</v>
@@ -1876,8 +1938,8 @@
       <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="1">
-        <v>20190227</v>
+      <c r="J34" s="3">
+        <v>43523</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>13</v>
@@ -1908,8 +1970,8 @@
       <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="1">
-        <v>20190313</v>
+      <c r="J35" s="3">
+        <v>43537</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>13</v>
